--- a/public/template/template_import_guru.xlsx
+++ b/public/template/template_import_guru.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus Vivobook\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Web\eraport\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C834C-4F21-4880-ADB8-12AE05E591A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCE61C9-026E-463B-B7B6-500D9AE725C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1860" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$3</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>nama</t>
   </si>
@@ -107,6 +110,18 @@
   </si>
   <si>
     <t>Jl. Pelajar No.2</t>
+  </si>
+  <si>
+    <t>nip</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>MAPEL</t>
+  </si>
+  <si>
+    <t>KELAS</t>
   </si>
 </sst>
 </file>
@@ -138,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,15 +176,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,117 +501,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="19" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>32323422</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>212133223</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{FF996ADB-E391-4072-96FE-27EB747ADA5E}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{FF996ADB-E391-4072-96FE-27EB747ADA5E}">
       <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{B1DD06AA-DA75-461D-8740-C67931A092B4}">
+      <formula1>"MAPEL,KELAS"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/template_import_guru.xlsx
+++ b/public/template/template_import_guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Web\eraport\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCE61C9-026E-463B-B7B6-500D9AE725C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C717ECE2-3191-4DAF-8E0A-2FEF92F6AA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>nama</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>KELAS</t>
+  </si>
+  <si>
+    <t>status_guru</t>
+  </si>
+  <si>
+    <t>HONORER</t>
+  </si>
+  <si>
+    <t>PNS</t>
   </si>
 </sst>
 </file>
@@ -501,19 +510,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="12" width="19" customWidth="1"/>
+    <col min="2" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -521,37 +530,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>32323422</v>
       </c>
@@ -559,37 +571,40 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>212133223</v>
       </c>
@@ -597,43 +612,49 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{FF996ADB-E391-4072-96FE-27EB747ADA5E}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{FF996ADB-E391-4072-96FE-27EB747ADA5E}">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{B1DD06AA-DA75-461D-8740-C67931A092B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B1DD06AA-DA75-461D-8740-C67931A092B4}">
       <formula1>"MAPEL,KELAS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A4C41267-614E-467B-98E1-32019A40487F}">
+      <formula1>"HONORER,PNS"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
